--- a/q1/result1.xlsx
+++ b/q1/result1.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="问题1计算结果" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="参数设置" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="数学模型" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,35 +461,31 @@
       <c r="A2" t="n">
         <v>-800</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>90.95</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>315.71</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="C2" t="n">
+        <v>315.71</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>-600</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>297.53</t>
-        </is>
+      <c r="B3" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>297.53</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.66%</t>
+          <t>35.83</t>
         </is>
       </c>
     </row>
@@ -495,19 +493,15 @@
       <c r="A4" t="n">
         <v>-400</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>80.47</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>279.35</t>
-        </is>
+      <c r="B4" t="n">
+        <v>80.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>279.35</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.41%</t>
+          <t>31.66</t>
         </is>
       </c>
     </row>
@@ -515,19 +509,15 @@
       <c r="A5" t="n">
         <v>-200</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>75.24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>261.17</t>
-        </is>
+      <c r="B5" t="n">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>261.17</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.57%</t>
+          <t>26.90</t>
         </is>
       </c>
     </row>
@@ -535,19 +525,15 @@
       <c r="A6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>242.99</t>
-        </is>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" t="n">
+        <v>242.99</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>21.43</t>
         </is>
       </c>
     </row>
@@ -555,19 +541,15 @@
       <c r="A7" t="n">
         <v>200</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>64.76</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>224.81</t>
-        </is>
+      <c r="B7" t="n">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>224.81</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.53%</t>
+          <t>15.08</t>
         </is>
       </c>
     </row>
@@ -575,19 +557,15 @@
       <c r="A8" t="n">
         <v>400</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>59.53</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>206.63</t>
-        </is>
+      <c r="B8" t="n">
+        <v>59.53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>206.63</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.92%</t>
+          <t>7.61</t>
         </is>
       </c>
     </row>
@@ -595,19 +573,15 @@
       <c r="A9" t="n">
         <v>600</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>54.29</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>188.45</t>
-        </is>
+      <c r="B9" t="n">
+        <v>54.29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>188.45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-3.15%</t>
+          <t>-1.31</t>
         </is>
       </c>
     </row>
@@ -615,19 +589,206 @@
       <c r="A10" t="n">
         <v>800</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>49.05</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>170.27</t>
-        </is>
+      <c r="B10" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>170.27</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-14.17%</t>
+          <t>-12.12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>参数名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>数值</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>多波束换能器开角</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>120°</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>换能器的总开角</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>海底坡度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.5°</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海底倾斜角度</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>海域中心点水深</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>70m</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中心点处的水深</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>测线间距</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200m</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>相邻测线间的距离</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>公式名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>数学表达式</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>水深计算</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D(x) = D₀ - x·tan(α)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>随位置变化的水深</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>覆盖宽度计算</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>W = D·sin(θ/2)·[1/(cos(θ/2)+sin(θ/2)·tan(α)) + 1/(cos(θ/2)-sin(θ/2)·tan(α))]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>多波束覆盖宽度</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>重叠率计算</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>η = B/A + D(x-d)/D(x) - d/(D(x)·sin(θ/2)·cos(α))</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>相邻条带重叠率</t>
         </is>
       </c>
     </row>
